--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H2">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I2">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J2">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N2">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O2">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P2">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q2">
-        <v>224.6956538478003</v>
+        <v>205.6181175590836</v>
       </c>
       <c r="R2">
-        <v>2022.260884630203</v>
+        <v>1850.563058031752</v>
       </c>
       <c r="S2">
-        <v>0.0001768999975454353</v>
+        <v>0.0002037873623224447</v>
       </c>
       <c r="T2">
-        <v>0.0001853792257607188</v>
+        <v>0.000221930419280361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H3">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I3">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J3">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>243.189949</v>
       </c>
       <c r="O3">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P3">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q3">
-        <v>863.8657948820013</v>
+        <v>1032.672450131116</v>
       </c>
       <c r="R3">
-        <v>7774.792153938012</v>
+        <v>9294.052051180048</v>
       </c>
       <c r="S3">
-        <v>0.000680110426602751</v>
+        <v>0.001023477878571696</v>
       </c>
       <c r="T3">
-        <v>0.000712709700762025</v>
+        <v>0.00111459745161329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H4">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I4">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J4">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N4">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O4">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P4">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q4">
-        <v>1459.958908593541</v>
+        <v>2149.13084527078</v>
       </c>
       <c r="R4">
-        <v>13139.63017734187</v>
+        <v>19342.17760743702</v>
       </c>
       <c r="S4">
-        <v>0.001149406866238602</v>
+        <v>0.002129995700002898</v>
       </c>
       <c r="T4">
-        <v>0.001204500609971118</v>
+        <v>0.002319627838447889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H5">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I5">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J5">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N5">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O5">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P5">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q5">
-        <v>726.0523523922408</v>
+        <v>1050.143546354905</v>
       </c>
       <c r="R5">
-        <v>4356.314114353445</v>
+        <v>6300.861278129431</v>
       </c>
       <c r="S5">
-        <v>0.0005716116763123689</v>
+        <v>0.001040793417973542</v>
       </c>
       <c r="T5">
-        <v>0.000399340235390553</v>
+        <v>0.0007556363881865965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.65667966666667</v>
+        <v>12.73908466666667</v>
       </c>
       <c r="H6">
-        <v>31.970039</v>
+        <v>38.217254</v>
       </c>
       <c r="I6">
-        <v>0.005231683521566389</v>
+        <v>0.005953388968763418</v>
       </c>
       <c r="J6">
-        <v>0.005282780159919856</v>
+        <v>0.006105597140986208</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N6">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O6">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P6">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q6">
-        <v>3370.631167696543</v>
+        <v>1569.307198523145</v>
       </c>
       <c r="R6">
-        <v>30335.68050926889</v>
+        <v>14123.76478670831</v>
       </c>
       <c r="S6">
-        <v>0.002653654554867232</v>
+        <v>0.001555334609892838</v>
       </c>
       <c r="T6">
-        <v>0.002780850388035441</v>
+        <v>0.001693805043458071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I7">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J7">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N7">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O7">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P7">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q7">
-        <v>41430.70898994067</v>
+        <v>31715.58739548569</v>
       </c>
       <c r="R7">
-        <v>372876.380909466</v>
+        <v>285440.2865593712</v>
       </c>
       <c r="S7">
-        <v>0.03261786417814106</v>
+        <v>0.03143320236834585</v>
       </c>
       <c r="T7">
-        <v>0.03418131425218949</v>
+        <v>0.0342316800287822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I8">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J8">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>243.189949</v>
       </c>
       <c r="O8">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P8">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q8">
         <v>159284.6667980639</v>
@@ -948,10 +948,10 @@
         <v>1433562.001182575</v>
       </c>
       <c r="S8">
-        <v>0.1254027689591595</v>
+        <v>0.1578664491754216</v>
       </c>
       <c r="T8">
-        <v>0.1314136152654748</v>
+        <v>0.1719211969600354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I9">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J9">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N9">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O9">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P9">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q9">
-        <v>269195.8284167877</v>
+        <v>331492.9051810508</v>
       </c>
       <c r="R9">
-        <v>2422762.455751089</v>
+        <v>2983436.146629457</v>
       </c>
       <c r="S9">
-        <v>0.2119344124850208</v>
+        <v>0.328541402758632</v>
       </c>
       <c r="T9">
-        <v>0.2220929216713816</v>
+        <v>0.3577912311844601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I10">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J10">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N10">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O10">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P10">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q10">
-        <v>133873.8120132948</v>
+        <v>161979.4978069184</v>
       </c>
       <c r="R10">
-        <v>803242.8720797689</v>
+        <v>971876.9868415105</v>
       </c>
       <c r="S10">
-        <v>0.105397129899946</v>
+        <v>0.1605372863064997</v>
       </c>
       <c r="T10">
-        <v>0.07363270627231303</v>
+        <v>0.1165532113280571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5894.824219</v>
       </c>
       <c r="I11">
-        <v>0.9646486427205408</v>
+        <v>0.9182810852447438</v>
       </c>
       <c r="J11">
-        <v>0.9740701420585772</v>
+        <v>0.9417584502053091</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N11">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O11">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P11">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q11">
-        <v>621496.8408594632</v>
+        <v>242057.9479861446</v>
       </c>
       <c r="R11">
-        <v>5593471.567735169</v>
+        <v>2178521.531875302</v>
       </c>
       <c r="S11">
-        <v>0.4892964671982735</v>
+        <v>0.2399027446358447</v>
       </c>
       <c r="T11">
-        <v>0.5127495845972181</v>
+        <v>0.2612611307039743</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H12">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I12">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J12">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N12">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O12">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P12">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q12">
-        <v>24.600833743332</v>
+        <v>17.62351895451245</v>
       </c>
       <c r="R12">
-        <v>221.407503689988</v>
+        <v>158.6116705906121</v>
       </c>
       <c r="S12">
-        <v>1.936791991428051E-05</v>
+        <v>1.746660501133958E-05</v>
       </c>
       <c r="T12">
-        <v>2.029626935061297E-05</v>
+        <v>1.902164554952932E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H13">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I13">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J13">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>243.189949</v>
       </c>
       <c r="O13">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P13">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q13">
-        <v>94.58046220528399</v>
+        <v>88.51030597271679</v>
       </c>
       <c r="R13">
-        <v>851.2241598475561</v>
+        <v>796.5927537544512</v>
       </c>
       <c r="S13">
-        <v>7.44619811084284E-05</v>
+        <v>8.772223968712063E-05</v>
       </c>
       <c r="T13">
-        <v>7.803111700408226E-05</v>
+        <v>9.553209390468086E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H14">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I14">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J14">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N14">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O14">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P14">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q14">
-        <v>159.843796563748</v>
+        <v>184.2019012574301</v>
       </c>
       <c r="R14">
-        <v>1438.594169073732</v>
+        <v>1657.81711131687</v>
       </c>
       <c r="S14">
-        <v>0.00012584296463043</v>
+        <v>0.0001825618288779668</v>
       </c>
       <c r="T14">
-        <v>0.0001318749105388249</v>
+        <v>0.0001988151903324102</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H15">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I15">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J15">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N15">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O15">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P15">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q15">
-        <v>79.49193900410401</v>
+        <v>90.00775278874254</v>
       </c>
       <c r="R15">
-        <v>476.9516340246241</v>
+        <v>540.0465167324552</v>
       </c>
       <c r="S15">
-        <v>6.258298090728983E-05</v>
+        <v>8.920635373542836E-05</v>
       </c>
       <c r="T15">
-        <v>4.37218191346082E-05</v>
+        <v>6.476555844403753E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.166748</v>
+        <v>1.091866333333334</v>
       </c>
       <c r="H16">
-        <v>3.500244</v>
+        <v>3.275599000000001</v>
       </c>
       <c r="I16">
-        <v>0.000572791570766042</v>
+        <v>0.0005102646818291153</v>
       </c>
       <c r="J16">
-        <v>0.0005783858930568872</v>
+        <v>0.0005233104369407934</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N16">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O16">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P16">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q16">
-        <v>369.034004648628</v>
+        <v>134.5052444159179</v>
       </c>
       <c r="R16">
-        <v>3321.306041837652</v>
+        <v>1210.547199743261</v>
       </c>
       <c r="S16">
-        <v>0.0002905357242056133</v>
+        <v>0.0001333076545172599</v>
       </c>
       <c r="T16">
-        <v>0.0003044617770287588</v>
+        <v>0.0001451759487101354</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H17">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I17">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J17">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N17">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O17">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P17">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q17">
-        <v>1246.247365261931</v>
+        <v>2583.022568001734</v>
       </c>
       <c r="R17">
-        <v>7477.484191571583</v>
+        <v>15498.1354080104</v>
       </c>
       <c r="S17">
-        <v>0.0009811545175910351</v>
+        <v>0.002560024195344389</v>
       </c>
       <c r="T17">
-        <v>0.0006854556900184685</v>
+        <v>0.001858627661584144</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H18">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I18">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J18">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>243.189949</v>
       </c>
       <c r="O18">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P18">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q18">
-        <v>4791.327524033179</v>
+        <v>12972.67125926219</v>
       </c>
       <c r="R18">
-        <v>28747.96514419908</v>
+        <v>77836.02755557316</v>
       </c>
       <c r="S18">
-        <v>0.003772150518830088</v>
+        <v>0.01285716691498055</v>
       </c>
       <c r="T18">
-        <v>0.002635305642873215</v>
+        <v>0.00933455477539836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H19">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I19">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J19">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N19">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O19">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P19">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q19">
-        <v>8097.486142112115</v>
+        <v>26997.88102732696</v>
       </c>
       <c r="R19">
-        <v>48584.91685267269</v>
+        <v>161987.2861639618</v>
       </c>
       <c r="S19">
-        <v>0.006375046664828282</v>
+        <v>0.02675750088643432</v>
       </c>
       <c r="T19">
-        <v>0.004453744983276153</v>
+        <v>0.01942646924698257</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H20">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I20">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J20">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N20">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O20">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P20">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q20">
-        <v>4026.961873610422</v>
+        <v>13192.14722942231</v>
       </c>
       <c r="R20">
-        <v>16107.84749444169</v>
+        <v>52768.58891768924</v>
       </c>
       <c r="S20">
-        <v>0.003170375275882173</v>
+        <v>0.01307468874419989</v>
       </c>
       <c r="T20">
-        <v>0.001476594993201075</v>
+        <v>0.00632831991998775</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.10598950000001</v>
+        <v>160.0313415</v>
       </c>
       <c r="H21">
-        <v>118.211979</v>
+        <v>320.062683</v>
       </c>
       <c r="I21">
-        <v>0.0290169021651515</v>
+        <v>0.0747878554913321</v>
       </c>
       <c r="J21">
-        <v>0.01953353567463783</v>
+        <v>0.05113328661083746</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N21">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O21">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P21">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q21">
-        <v>18694.79956589148</v>
+        <v>19714.00165526799</v>
       </c>
       <c r="R21">
-        <v>112168.7973953489</v>
+        <v>118284.0099316079</v>
       </c>
       <c r="S21">
-        <v>0.01471817518801993</v>
+        <v>0.01953847475037295</v>
       </c>
       <c r="T21">
-        <v>0.01028243436526891</v>
+        <v>0.01418531500688463</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H22">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I22">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J22">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.084959</v>
+        <v>16.14072933333334</v>
       </c>
       <c r="N22">
-        <v>63.25487699999999</v>
+        <v>48.42218800000001</v>
       </c>
       <c r="O22">
-        <v>0.03381320693734752</v>
+        <v>0.03423048004954622</v>
       </c>
       <c r="P22">
-        <v>0.03509122472428063</v>
+        <v>0.03634868370049611</v>
       </c>
       <c r="Q22">
-        <v>22.762119893737</v>
+        <v>16.14325266735245</v>
       </c>
       <c r="R22">
-        <v>204.859079043633</v>
+        <v>145.289274006172</v>
       </c>
       <c r="S22">
-        <v>1.792032415570639E-05</v>
+        <v>1.599951852219061E-05</v>
       </c>
       <c r="T22">
-        <v>1.877928696133936E-05</v>
+        <v>1.742394529988276E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H23">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I23">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J23">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>243.189949</v>
       </c>
       <c r="O23">
-        <v>0.12999838843446</v>
+        <v>0.1719151703242873</v>
       </c>
       <c r="P23">
-        <v>0.1349118606466557</v>
+        <v>0.1825533892714798</v>
       </c>
       <c r="Q23">
-        <v>87.51133570443567</v>
+        <v>81.07598923178676</v>
       </c>
       <c r="R23">
-        <v>787.6020213399211</v>
+        <v>729.683903086081</v>
       </c>
       <c r="S23">
-        <v>6.889654875923174E-05</v>
+        <v>8.035411562641675E-05</v>
       </c>
       <c r="T23">
-        <v>7.219892054148622E-05</v>
+        <v>8.75079905281702E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H24">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I24">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J24">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>136.9994176666667</v>
+        <v>168.70371</v>
       </c>
       <c r="N24">
-        <v>410.998253</v>
+        <v>506.11113</v>
       </c>
       <c r="O24">
-        <v>0.2197011461990087</v>
+        <v>0.3577786889414888</v>
       </c>
       <c r="P24">
-        <v>0.2280050605000741</v>
+        <v>0.3799182594076638</v>
       </c>
       <c r="Q24">
-        <v>147.8967623461263</v>
+        <v>168.73008401333</v>
       </c>
       <c r="R24">
-        <v>1331.070861115137</v>
+        <v>1518.57075611997</v>
       </c>
       <c r="S24">
-        <v>0.0001164372182905206</v>
+        <v>0.0001672277675416447</v>
       </c>
       <c r="T24">
-        <v>0.0001220183249063334</v>
+        <v>0.0001821159474409097</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H25">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I25">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J25">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>68.13119800000001</v>
+        <v>82.43477250000001</v>
       </c>
       <c r="N25">
-        <v>136.262396</v>
+        <v>164.869545</v>
       </c>
       <c r="O25">
-        <v>0.1092596052410345</v>
+        <v>0.1748236883957081</v>
       </c>
       <c r="P25">
-        <v>0.07559281728592909</v>
+        <v>0.1237612588479007</v>
       </c>
       <c r="Q25">
-        <v>73.55055788251401</v>
+        <v>82.4476598027675</v>
       </c>
       <c r="R25">
-        <v>441.3033472950841</v>
+        <v>494.685958816605</v>
       </c>
       <c r="S25">
-        <v>5.790540798664183E-05</v>
+        <v>8.171357329947497E-05</v>
       </c>
       <c r="T25">
-        <v>4.045396588983425E-05</v>
+        <v>5.932565322526439E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.079543</v>
+        <v>1.000156333333333</v>
       </c>
       <c r="H26">
-        <v>3.238629</v>
+        <v>3.000469</v>
       </c>
       <c r="I26">
-        <v>0.0005299800219751696</v>
+        <v>0.0004674056133315229</v>
       </c>
       <c r="J26">
-        <v>0.0005351562138082184</v>
+        <v>0.0004793556059265206</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>316.292811</v>
+        <v>123.1883796666667</v>
       </c>
       <c r="N26">
-        <v>948.878433</v>
+        <v>369.565139</v>
       </c>
       <c r="O26">
-        <v>0.5072276531881493</v>
+        <v>0.2612519722889696</v>
       </c>
       <c r="P26">
-        <v>0.5263990368430604</v>
+        <v>0.2774184087724594</v>
       </c>
       <c r="Q26">
-        <v>341.4516900653729</v>
+        <v>123.2076381166879</v>
       </c>
       <c r="R26">
-        <v>3073.065210588357</v>
+        <v>1108.868743050191</v>
       </c>
       <c r="S26">
-        <v>0.0002688205227830691</v>
+        <v>0.0001221106383417959</v>
       </c>
       <c r="T26">
-        <v>0.0002817057155092251</v>
+        <v>0.0001329820694322935</v>
       </c>
     </row>
   </sheetData>
